--- a/r5-ELGA-MOPED-149-workflowmanagement-grafiken-aendern/StructureDefinition-moped-ext-NumberOfPreviouslyPaidDays.xlsx
+++ b/r5-ELGA-MOPED-149-workflowmanagement-grafiken-aendern/StructureDefinition-moped-ext-NumberOfPreviouslyPaidDays.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T06:59:25+00:00</t>
+    <t>2024-10-11T07:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-149-workflowmanagement-grafiken-aendern/StructureDefinition-moped-ext-NumberOfPreviouslyPaidDays.xlsx
+++ b/r5-ELGA-MOPED-149-workflowmanagement-grafiken-aendern/StructureDefinition-moped-ext-NumberOfPreviouslyPaidDays.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T07:19:27+00:00</t>
+    <t>2024-10-11T07:37:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
